--- a/biology/Médecine/Angiome_en_touffes/Angiome_en_touffes.xlsx
+++ b/biology/Médecine/Angiome_en_touffes/Angiome_en_touffes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'angiome en touffes (AT), également nommé « angioblastome de Nakagawa » est une tumeur vasculaire (angiome) caractérisée par une aggravation régulière (certains cas régressant cependant spontanément).
 C’est une maladie rare, congénitale ou précoce (généralement acquise très tôt ; avant 5 ans)
@@ -514,7 +526,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévalence est inconnue, mais plus de 200 cas ont été décrits dans la littérature (tous ne sont pas publiés)
 </t>
@@ -545,7 +559,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>plaques rouges infiltrées, mal délimitées, parfois parsemées de papules rouges plus intense, dont l'aspect varie dans le temps.
 Plus rarement (souvent dans des cas congénitaux), une masse tumorale importante est présente.
@@ -577,7 +593,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est histologique.
 Il y a dispersion dans tout le derme de petites touffes capillaires disposées en « grenaille de plombs » et cernées d'un vaisseau sanguin.
@@ -611,7 +629,9 @@
           <t>Évolution, Pronostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement (il y a des cas de rémission spontanée), certains AT s'infiltrent dans les membres inférieurs en produisant peu à peu un tégument induré scléreux (la sclérose gagnant éventuellement le muscle et l'articulation proches, en gênant leur fonctions.
 Complications : un syndrome de Kasabach-Merritt (SKM) avec une thrombopénie majeure peuvent conduire à la mort.
@@ -643,10 +663,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>On ne connait pas de traitement spécifique efficace.
-Une corticothérapie générale, l'interféron alpha ou le vincristine ont parfois amélioré des formes graves étendues[1]</t>
+Une corticothérapie générale, l'interféron alpha ou le vincristine ont parfois amélioré des formes graves étendues</t>
         </is>
       </c>
     </row>
